--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N2">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O2">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P2">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q2">
-        <v>2532.00638255004</v>
+        <v>3233.503606591805</v>
       </c>
       <c r="R2">
-        <v>22788.05744295036</v>
+        <v>29101.53245932625</v>
       </c>
       <c r="S2">
-        <v>0.05080198670154022</v>
+        <v>0.06752728265886991</v>
       </c>
       <c r="T2">
-        <v>0.05080198670154022</v>
+        <v>0.0675272826588699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H3">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>93.87276</v>
       </c>
       <c r="O3">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P3">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q3">
-        <v>3468.924773283453</v>
+        <v>3605.382650099787</v>
       </c>
       <c r="R3">
-        <v>31220.32295955108</v>
+        <v>32448.44385089808</v>
       </c>
       <c r="S3">
-        <v>0.06960024722509033</v>
+        <v>0.07529346582770279</v>
       </c>
       <c r="T3">
-        <v>0.06960024722509031</v>
+        <v>0.07529346582770274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H4">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N4">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O4">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P4">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q4">
-        <v>2536.514374027201</v>
+        <v>2936.426660126255</v>
       </c>
       <c r="R4">
-        <v>22828.62936624481</v>
+        <v>26427.8399411363</v>
       </c>
       <c r="S4">
-        <v>0.05089243470540456</v>
+        <v>0.06132323857043367</v>
       </c>
       <c r="T4">
-        <v>0.05089243470540455</v>
+        <v>0.06132323857043365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H5">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N5">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O5">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P5">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q5">
-        <v>3971.502872740778</v>
+        <v>3572.027407927095</v>
       </c>
       <c r="R5">
-        <v>35743.525854667</v>
+        <v>32148.24667134386</v>
       </c>
       <c r="S5">
-        <v>0.07968393662693241</v>
+        <v>0.07459688739749518</v>
       </c>
       <c r="T5">
-        <v>0.07968393662693239</v>
+        <v>0.07459688739749513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J6">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N6">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O6">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P6">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q6">
-        <v>4221.710418015774</v>
+        <v>5187.289795930404</v>
       </c>
       <c r="R6">
-        <v>37995.39376214196</v>
+        <v>46685.60816337364</v>
       </c>
       <c r="S6">
-        <v>0.0847040821033762</v>
+        <v>0.1083294243337714</v>
       </c>
       <c r="T6">
-        <v>0.08470408210337618</v>
+        <v>0.1083294243337714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>93.87276</v>
       </c>
       <c r="O7">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P7">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q7">
         <v>5783.87003903784</v>
@@ -883,10 +883,10 @@
         <v>52054.83035134056</v>
       </c>
       <c r="S7">
-        <v>0.1160471359123165</v>
+        <v>0.1207881835022744</v>
       </c>
       <c r="T7">
-        <v>0.1160471359123164</v>
+        <v>0.1207881835022744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J8">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N8">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O8">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P8">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q8">
-        <v>4229.226763438368</v>
+        <v>4710.709466820708</v>
       </c>
       <c r="R8">
-        <v>38063.0408709453</v>
+        <v>42396.38520138637</v>
       </c>
       <c r="S8">
-        <v>0.08485488949581975</v>
+        <v>0.09837669858828557</v>
       </c>
       <c r="T8">
-        <v>0.08485488949581972</v>
+        <v>0.09837669858828554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J9">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N9">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O9">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P9">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q9">
-        <v>6621.837594320502</v>
+        <v>5730.36049384653</v>
       </c>
       <c r="R9">
-        <v>59596.53834888452</v>
+        <v>51573.24444461877</v>
       </c>
       <c r="S9">
-        <v>0.1328600542734931</v>
+        <v>0.1196707101288986</v>
       </c>
       <c r="T9">
-        <v>0.1328600542734931</v>
+        <v>0.1196707101288985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H10">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N10">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O10">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P10">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q10">
-        <v>1159.763965407225</v>
+        <v>1699.265838421247</v>
       </c>
       <c r="R10">
-        <v>10437.87568866502</v>
+        <v>15293.39254579122</v>
       </c>
       <c r="S10">
-        <v>0.02326941746813665</v>
+        <v>0.03548683364685625</v>
       </c>
       <c r="T10">
-        <v>0.02326941746813665</v>
+        <v>0.03548683364685624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H11">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>93.87276</v>
       </c>
       <c r="O11">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P11">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q11">
-        <v>1588.911457131</v>
+        <v>1894.695140980133</v>
       </c>
       <c r="R11">
-        <v>14300.203114179</v>
+        <v>17052.2562688212</v>
       </c>
       <c r="S11">
-        <v>0.03187980064797435</v>
+        <v>0.03956810627225762</v>
       </c>
       <c r="T11">
-        <v>0.03187980064797435</v>
+        <v>0.03956810627225761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N12">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O12">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P12">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q12">
-        <v>1161.8288125212</v>
+        <v>1543.146418766883</v>
       </c>
       <c r="R12">
-        <v>10456.4593126908</v>
+        <v>13888.31776890194</v>
       </c>
       <c r="S12">
-        <v>0.02331084640621035</v>
+        <v>0.03222649394658578</v>
       </c>
       <c r="T12">
-        <v>0.02331084640621035</v>
+        <v>0.03222649394658577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H13">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N13">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O13">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P13">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q13">
-        <v>1819.113076514925</v>
+        <v>1877.166345452961</v>
       </c>
       <c r="R13">
-        <v>16372.01768863433</v>
+        <v>16894.49710907665</v>
       </c>
       <c r="S13">
-        <v>0.03649854872349744</v>
+        <v>0.03920204144776822</v>
       </c>
       <c r="T13">
-        <v>0.03649854872349744</v>
+        <v>0.0392020414477682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H14">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N14">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O14">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P14">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q14">
-        <v>2175.053991551164</v>
+        <v>1480.333464000883</v>
       </c>
       <c r="R14">
-        <v>19575.48592396047</v>
+        <v>13323.00117600795</v>
       </c>
       <c r="S14">
-        <v>0.04364012062348364</v>
+        <v>0.03091473163944762</v>
       </c>
       <c r="T14">
-        <v>0.04364012062348363</v>
+        <v>0.03091473163944762</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H15">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>93.87276</v>
       </c>
       <c r="O15">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P15">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q15">
-        <v>2979.889279316134</v>
+        <v>1650.583774389667</v>
       </c>
       <c r="R15">
-        <v>26819.0035138452</v>
+        <v>14855.253969507</v>
       </c>
       <c r="S15">
-        <v>0.05978827564700608</v>
+        <v>0.03447017558852716</v>
       </c>
       <c r="T15">
-        <v>0.05978827564700607</v>
+        <v>0.03447017558852716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H16">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N16">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O16">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P16">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q16">
-        <v>2178.926463960338</v>
+        <v>1344.328375174128</v>
       </c>
       <c r="R16">
-        <v>19610.33817564304</v>
+        <v>12098.95537656715</v>
       </c>
       <c r="S16">
-        <v>0.04371781762029564</v>
+        <v>0.02807445211802496</v>
       </c>
       <c r="T16">
-        <v>0.04371781762029563</v>
+        <v>0.02807445211802495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N17">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O17">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P17">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q17">
-        <v>3411.615877173257</v>
+        <v>1635.313378189264</v>
       </c>
       <c r="R17">
-        <v>30704.54289455932</v>
+        <v>14717.82040370338</v>
       </c>
       <c r="S17">
-        <v>0.06845040581942294</v>
+        <v>0.0341512743328009</v>
       </c>
       <c r="T17">
-        <v>0.06845040581942294</v>
+        <v>0.03415127433280089</v>
       </c>
     </row>
   </sheetData>
